--- a/backend/pdf_processing/extracted/tables/fileoutpart7.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart7.xlsx
@@ -14,12 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>MTNE MTNC _x000D_</t>
-  </si>
-  <si>
-    <t>Altitude 3500' _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Out: _x000D_</t>
+  </si>
+  <si>
+    <t>In: _x000D_</t>
+  </si>
+  <si>
+    <t>Block time: _x000D_</t>
+  </si>
+  <si>
+    <t>Off: _x000D_</t>
+  </si>
+  <si>
+    <t>On: _x000D_</t>
+  </si>
+  <si>
+    <t>Flight time: _x000D_</t>
+  </si>
+  <si>
+    <t>Start: _x000D_</t>
+  </si>
+  <si>
+    <t>Stop: _x000D_</t>
+  </si>
+  <si>
+    <t>Hobbs time: _x000D_</t>
+  </si>
+  <si>
+    <t>Rem: _x000D_</t>
+  </si>
+  <si>
+    <t>Fuel used: _x000D_</t>
   </si>
 </sst>
 </file>
@@ -58,10 +85,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,23 +384,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" customHeight="1">
+    <row r="1" spans="1:3" ht="37" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3" ht="36" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
